--- a/Data/site_coding/WWTP_location.xlsx
+++ b/Data/site_coding/WWTP_location.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,19 +15,89 @@
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>WWTP</t>
   </si>
   <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>county_centroid_lat</t>
+  </si>
+  <si>
+    <t>county_centroid_lon</t>
+  </si>
+  <si>
+    <t>city_centroid_lat</t>
+  </si>
+  <si>
+    <t>city_centroid_lon</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>FillOpacity</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Harris County</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
     <t>Turkey Creek</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>Homestead</t>
   </si>
   <si>
@@ -40,30 +110,21 @@
     <t>Almeda Sims</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Texas</t>
+    <t>Intercontinental Airport</t>
+  </si>
+  <si>
+    <t>El Paso County</t>
   </si>
   <si>
     <t>El Paso</t>
   </si>
   <si>
+    <t>Fred Hurvey</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
     <t>Haskell</t>
   </si>
   <si>
@@ -73,122 +134,77 @@
     <t>Roberto Bustamante</t>
   </si>
   <si>
+    <t>Cameron County</t>
+  </si>
+  <si>
     <t>Brownsville</t>
   </si>
   <si>
+    <t>Robindale</t>
+  </si>
+  <si>
+    <t>lightblue</t>
+  </si>
+  <si>
+    <t>BRSV_TX2</t>
+  </si>
+  <si>
+    <t>Lubbock County</t>
+  </si>
+  <si>
     <t>Lubbock</t>
   </si>
   <si>
+    <t>LB_TX1</t>
+  </si>
+  <si>
+    <t>lightgreen</t>
+  </si>
+  <si>
+    <t>Wichita County</t>
+  </si>
+  <si>
     <t>Wichita Falls</t>
   </si>
   <si>
-    <t>BRSV_TX2</t>
-  </si>
-  <si>
-    <t>LB_TX1</t>
-  </si>
-  <si>
     <t>WICH_TX1</t>
   </si>
   <si>
-    <t>Harris County</t>
-  </si>
-  <si>
-    <t>El Paso County</t>
-  </si>
-  <si>
-    <t>Cameron County</t>
-  </si>
-  <si>
-    <t>Lubbock County</t>
-  </si>
-  <si>
-    <t>Wichita County</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Fred Hurvey</t>
-  </si>
-  <si>
-    <t>Intercontinental Airport</t>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>Fort Bend County</t>
   </si>
   <si>
     <t>Missouri City</t>
   </si>
   <si>
+    <t>West Fondren Rd</t>
+  </si>
+  <si>
+    <t>darkblue</t>
+  </si>
+  <si>
     <t>Baytown</t>
   </si>
   <si>
+    <t>Baytown Central</t>
+  </si>
+  <si>
+    <t>Baytown West</t>
+  </si>
+  <si>
     <t>Humble</t>
   </si>
   <si>
-    <t>West Fondren Rd</t>
-  </si>
-  <si>
-    <t>Baytown Central</t>
-  </si>
-  <si>
-    <t>Baytown West</t>
-  </si>
-  <si>
     <t>Humble West</t>
-  </si>
-  <si>
-    <t>Fort Bend County</t>
-  </si>
-  <si>
-    <t>county_centroid_lat</t>
-  </si>
-  <si>
-    <t>county_centroid_lon</t>
-  </si>
-  <si>
-    <t>city_centroid_lat</t>
-  </si>
-  <si>
-    <t>city_centroid_lon</t>
-  </si>
-  <si>
-    <t>Robindale</t>
-  </si>
-  <si>
-    <t>Radius</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>FillOpacity</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>lightblue</t>
-  </si>
-  <si>
-    <t>lightgreen</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>darkblue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,68 +567,68 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -645,18 +661,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>29.763192418352482</v>
@@ -680,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -689,18 +705,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>29.8074534</v>
@@ -724,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -733,18 +749,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>29.585737000000002</v>
@@ -768,7 +784,7 @@
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -777,18 +793,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>29.789839700000002</v>
@@ -812,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -821,18 +837,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
       </c>
       <c r="E7">
         <v>29.629288200000001</v>
@@ -856,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -865,18 +881,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>29.964918600000001</v>
@@ -900,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -909,18 +925,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>31.946919999999999</v>
@@ -944,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -953,18 +969,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>31.763929999999998</v>
@@ -988,7 +1004,7 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -997,18 +1013,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>31.791319999999999</v>
@@ -1032,7 +1048,7 @@
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -1041,18 +1057,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>31.65212</v>
@@ -1076,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1085,18 +1101,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>25.89799</v>
@@ -1120,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1129,18 +1145,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>25.956150000000001</v>
@@ -1164,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -1173,18 +1189,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>33.659480000000002</v>
@@ -1208,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -1217,18 +1233,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>37.766460000000002</v>
@@ -1252,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -1261,18 +1277,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>29.568729999999999</v>
@@ -1296,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M17">
         <v>3</v>
@@ -1305,18 +1321,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>29.764720000000001</v>
@@ -1340,7 +1356,7 @@
         <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -1349,18 +1365,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>29.811800000000002</v>
@@ -1384,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -1393,18 +1409,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>29.999400000000001</v>
@@ -1428,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M20">
         <v>3</v>
